--- a/engeto_excel_2023_kypta_2_covid_report.xlsx
+++ b/engeto_excel_2023_kypta_2_covid_report.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkypt\Desktop\engeto_datacourse_SQL_BI_EXCEL_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkypt\Desktop\engeto_datacourse_sql_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36398D05-A68E-406B-B4C4-1CB7BD1542B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CD3D2E-E05E-4AE1-B934-BA99DF0D80D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -118,6 +118,9 @@
   <si>
     <t>previous_week</t>
   </si>
+  <si>
+    <t>short_day</t>
+  </si>
 </sst>
 </file>
 
@@ -175,16 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -192,13 +189,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="13">
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -208,204 +215,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2693,20 +2502,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="15875">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -9349,8 +9145,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="yearweek">
@@ -9373,7 +9169,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10872,7 +10668,7 @@
     <dataField name="Number of confirmed cases" fld="1" baseField="4" baseItem="2" numFmtId="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="65">
+    <format dxfId="2">
       <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11111,7 +10907,7 @@
     <dataField name="Number of confirmed cases" fld="1" baseField="4" baseItem="2" numFmtId="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="67">
+    <format dxfId="3">
       <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11195,7 +10991,7 @@
     <dataField name="Number of confirmed cases" fld="1" baseField="4" baseItem="2" numFmtId="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="68">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11261,34 +11057,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="data" displayName="data" ref="A1:J123" totalsRowShown="0">
-  <autoFilter ref="A1:J123" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="date" dataDxfId="77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="data" displayName="data" ref="A1:K123" totalsRowShown="0">
+  <autoFilter ref="A1:K123" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="date" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="confirmed"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="year" dataDxfId="76">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="year" dataDxfId="11">
       <calculatedColumnFormula>YEAR(data[[#This Row],[date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="month" dataDxfId="75">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="month" dataDxfId="10">
       <calculatedColumnFormula>MONTH(data[[#This Row],[date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="period" dataDxfId="74">
-      <calculatedColumnFormula>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="period" dataDxfId="1">
+      <calculatedColumnFormula>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{236B00E1-4C23-49B0-A698-9CB1F354D02C}" name="week" dataDxfId="73">
+    <tableColumn id="2" xr3:uid="{236B00E1-4C23-49B0-A698-9CB1F354D02C}" name="week" dataDxfId="9">
       <calculatedColumnFormula>WEEKNUM(data[[#This Row],[date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{037D3389-24E6-43FA-B944-E901B19DDB6A}" name="yearweek" dataDxfId="72">
+    <tableColumn id="7" xr3:uid="{037D3389-24E6-43FA-B944-E901B19DDB6A}" name="yearweek" dataDxfId="8">
       <calculatedColumnFormula>data[[#This Row],[year]]*100+data[[#This Row],[week]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3FE79574-410C-46DD-BC21-FD6449A3A525}" name="day" dataDxfId="71">
+    <tableColumn id="8" xr3:uid="{3FE79574-410C-46DD-BC21-FD6449A3A525}" name="day" dataDxfId="7">
       <calculatedColumnFormula>TEXT(data[[#This Row],[date]],"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CFBEFF41-5DCD-4649-84F9-5A00DA3E0B59}" name="current_week" dataDxfId="70">
+    <tableColumn id="9" xr3:uid="{CFBEFF41-5DCD-4649-84F9-5A00DA3E0B59}" name="current_week" dataDxfId="6">
       <calculatedColumnFormula>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AE27ECAB-9F2A-4812-91C1-7C77DDB38E7D}" name="previous_week" dataDxfId="69">
+    <tableColumn id="10" xr3:uid="{AE27ECAB-9F2A-4812-91C1-7C77DDB38E7D}" name="previous_week" dataDxfId="5">
       <calculatedColumnFormula>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{7F6B27A8-FBBA-4586-97E2-5BABECFF86EA}" name="short_day" dataDxfId="0">
+      <calculatedColumnFormula>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11296,9 +11095,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11336,7 +11135,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11442,7 +11241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11584,7 +11383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11592,24 +11391,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J123"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11640,8 +11441,11 @@
       <c r="J1" t="s">
         <v>21</v>
       </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44075</v>
       </c>
@@ -11657,7 +11461,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F2">
@@ -11668,9 +11472,9 @@
         <f>data[[#This Row],[year]]*100+data[[#This Row],[week]]</f>
         <v>202036</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="8" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I2">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -11680,8 +11484,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K2" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44076</v>
       </c>
@@ -11697,7 +11505,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F3">
@@ -11710,7 +11518,7 @@
       </c>
       <c r="H3" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I3">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -11720,8 +11528,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K3" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44077</v>
       </c>
@@ -11737,7 +11549,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F4">
@@ -11750,7 +11562,7 @@
       </c>
       <c r="H4" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I4">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -11760,8 +11572,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K4" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44078</v>
       </c>
@@ -11777,7 +11593,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F5">
@@ -11790,7 +11606,7 @@
       </c>
       <c r="H5" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I5">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -11800,8 +11616,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K5" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44079</v>
       </c>
@@ -11817,7 +11637,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F6">
@@ -11830,7 +11650,7 @@
       </c>
       <c r="H6" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I6">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -11840,8 +11660,13 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K6" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44080</v>
       </c>
@@ -11857,7 +11682,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F7">
@@ -11870,7 +11695,7 @@
       </c>
       <c r="H7" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I7">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -11880,8 +11705,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K7" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44081</v>
       </c>
@@ -11897,7 +11726,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F8">
@@ -11910,7 +11739,7 @@
       </c>
       <c r="H8" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I8">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -11920,8 +11749,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K8" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44082</v>
       </c>
@@ -11937,7 +11770,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F9">
@@ -11950,7 +11783,7 @@
       </c>
       <c r="H9" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I9">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -11960,8 +11793,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K9" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44083</v>
       </c>
@@ -11977,7 +11814,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F10">
@@ -11990,7 +11827,7 @@
       </c>
       <c r="H10" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I10">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12000,8 +11837,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K10" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44084</v>
       </c>
@@ -12017,7 +11858,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F11">
@@ -12030,7 +11871,7 @@
       </c>
       <c r="H11" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I11">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12040,8 +11881,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K11" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44085</v>
       </c>
@@ -12057,7 +11902,7 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F12">
@@ -12070,7 +11915,7 @@
       </c>
       <c r="H12" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I12">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12080,8 +11925,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K12" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44086</v>
       </c>
@@ -12097,7 +11946,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F13">
@@ -12110,7 +11959,7 @@
       </c>
       <c r="H13" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I13">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12120,8 +11969,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K13" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44087</v>
       </c>
@@ -12137,7 +11990,7 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F14">
@@ -12150,7 +12003,7 @@
       </c>
       <c r="H14" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I14">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12160,8 +12013,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K14" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44088</v>
       </c>
@@ -12177,7 +12034,7 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F15">
@@ -12190,7 +12047,7 @@
       </c>
       <c r="H15" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I15">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12200,8 +12057,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K15" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44089</v>
       </c>
@@ -12217,7 +12078,7 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F16">
@@ -12230,7 +12091,7 @@
       </c>
       <c r="H16" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I16">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12240,8 +12101,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K16" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44090</v>
       </c>
@@ -12257,7 +12122,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F17">
@@ -12270,7 +12135,7 @@
       </c>
       <c r="H17" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I17">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12280,8 +12145,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K17" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44091</v>
       </c>
@@ -12297,7 +12166,7 @@
         <v>9</v>
       </c>
       <c r="E18">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F18">
@@ -12310,7 +12179,7 @@
       </c>
       <c r="H18" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I18">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12320,8 +12189,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K18" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44092</v>
       </c>
@@ -12337,7 +12210,7 @@
         <v>9</v>
       </c>
       <c r="E19">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F19">
@@ -12350,7 +12223,7 @@
       </c>
       <c r="H19" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I19">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12360,8 +12233,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K19" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44093</v>
       </c>
@@ -12377,7 +12254,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F20">
@@ -12390,7 +12267,7 @@
       </c>
       <c r="H20" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I20">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12400,8 +12277,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K20" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44094</v>
       </c>
@@ -12417,7 +12298,7 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F21">
@@ -12430,7 +12311,7 @@
       </c>
       <c r="H21" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I21">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12440,8 +12321,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K21" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44095</v>
       </c>
@@ -12457,7 +12342,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F22">
@@ -12470,7 +12355,7 @@
       </c>
       <c r="H22" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I22">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12480,8 +12365,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K22" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44096</v>
       </c>
@@ -12497,7 +12386,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F23">
@@ -12510,7 +12399,7 @@
       </c>
       <c r="H23" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I23">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12520,8 +12409,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K23" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44097</v>
       </c>
@@ -12537,7 +12430,7 @@
         <v>9</v>
       </c>
       <c r="E24">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F24">
@@ -12550,7 +12443,7 @@
       </c>
       <c r="H24" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I24">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12560,8 +12453,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K24" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44098</v>
       </c>
@@ -12577,7 +12474,7 @@
         <v>9</v>
       </c>
       <c r="E25">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F25">
@@ -12590,7 +12487,7 @@
       </c>
       <c r="H25" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I25">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12600,8 +12497,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K25" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44099</v>
       </c>
@@ -12617,7 +12518,7 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F26">
@@ -12630,7 +12531,7 @@
       </c>
       <c r="H26" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I26">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12640,8 +12541,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K26" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44100</v>
       </c>
@@ -12657,7 +12562,7 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F27">
@@ -12670,7 +12575,7 @@
       </c>
       <c r="H27" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I27">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12680,8 +12585,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K27" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44101</v>
       </c>
@@ -12697,7 +12606,7 @@
         <v>9</v>
       </c>
       <c r="E28">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F28">
@@ -12710,7 +12619,7 @@
       </c>
       <c r="H28" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I28">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12720,8 +12629,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K28" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44102</v>
       </c>
@@ -12737,7 +12650,7 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F29">
@@ -12750,7 +12663,7 @@
       </c>
       <c r="H29" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I29">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12760,8 +12673,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K29" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44103</v>
       </c>
@@ -12777,7 +12694,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F30">
@@ -12790,7 +12707,7 @@
       </c>
       <c r="H30" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I30">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12800,8 +12717,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K30" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44104</v>
       </c>
@@ -12817,7 +12738,7 @@
         <v>9</v>
       </c>
       <c r="E31">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202009</v>
       </c>
       <c r="F31">
@@ -12830,7 +12751,7 @@
       </c>
       <c r="H31" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I31">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12840,8 +12761,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K31" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44105</v>
       </c>
@@ -12857,7 +12782,7 @@
         <v>10</v>
       </c>
       <c r="E32">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F32">
@@ -12870,7 +12795,7 @@
       </c>
       <c r="H32" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I32">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12880,8 +12805,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K32" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44106</v>
       </c>
@@ -12897,7 +12826,7 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F33">
@@ -12910,7 +12839,7 @@
       </c>
       <c r="H33" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I33">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12920,8 +12849,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K33" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44107</v>
       </c>
@@ -12937,7 +12870,7 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F34">
@@ -12950,7 +12883,7 @@
       </c>
       <c r="H34" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I34">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -12960,8 +12893,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K34" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44108</v>
       </c>
@@ -12977,7 +12914,7 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F35">
@@ -12990,7 +12927,7 @@
       </c>
       <c r="H35" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I35">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13000,8 +12937,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K35" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44109</v>
       </c>
@@ -13017,7 +12958,7 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F36">
@@ -13030,7 +12971,7 @@
       </c>
       <c r="H36" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I36">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13040,8 +12981,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K36" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44110</v>
       </c>
@@ -13057,7 +13002,7 @@
         <v>10</v>
       </c>
       <c r="E37">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F37">
@@ -13070,7 +13015,7 @@
       </c>
       <c r="H37" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I37">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13080,8 +13025,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K37" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44111</v>
       </c>
@@ -13097,7 +13046,7 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F38">
@@ -13110,7 +13059,7 @@
       </c>
       <c r="H38" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I38">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13120,8 +13069,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K38" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44112</v>
       </c>
@@ -13137,7 +13090,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F39">
@@ -13150,7 +13103,7 @@
       </c>
       <c r="H39" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I39">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13160,8 +13113,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K39" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44113</v>
       </c>
@@ -13177,7 +13134,7 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F40">
@@ -13190,7 +13147,7 @@
       </c>
       <c r="H40" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I40">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13200,8 +13157,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K40" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44114</v>
       </c>
@@ -13217,7 +13178,7 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F41">
@@ -13230,7 +13191,7 @@
       </c>
       <c r="H41" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I41">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13240,8 +13201,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K41" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44115</v>
       </c>
@@ -13257,7 +13222,7 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F42">
@@ -13270,7 +13235,7 @@
       </c>
       <c r="H42" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I42">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13280,8 +13245,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K42" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44116</v>
       </c>
@@ -13297,7 +13266,7 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F43">
@@ -13310,7 +13279,7 @@
       </c>
       <c r="H43" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I43">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13320,8 +13289,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K43" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44117</v>
       </c>
@@ -13337,7 +13310,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F44">
@@ -13350,7 +13323,7 @@
       </c>
       <c r="H44" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I44">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13360,8 +13333,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K44" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44118</v>
       </c>
@@ -13377,7 +13354,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F45">
@@ -13390,7 +13367,7 @@
       </c>
       <c r="H45" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I45">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13400,8 +13377,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K45" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44119</v>
       </c>
@@ -13417,7 +13398,7 @@
         <v>10</v>
       </c>
       <c r="E46">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F46">
@@ -13430,7 +13411,7 @@
       </c>
       <c r="H46" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I46">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13440,8 +13421,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K46" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44120</v>
       </c>
@@ -13457,7 +13442,7 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F47">
@@ -13470,7 +13455,7 @@
       </c>
       <c r="H47" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I47">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13480,8 +13465,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K47" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44121</v>
       </c>
@@ -13497,7 +13486,7 @@
         <v>10</v>
       </c>
       <c r="E48">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F48">
@@ -13510,7 +13499,7 @@
       </c>
       <c r="H48" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I48">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13520,8 +13509,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K48" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44122</v>
       </c>
@@ -13537,7 +13530,7 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F49">
@@ -13550,7 +13543,7 @@
       </c>
       <c r="H49" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I49">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13560,8 +13553,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K49" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44123</v>
       </c>
@@ -13577,7 +13574,7 @@
         <v>10</v>
       </c>
       <c r="E50">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F50">
@@ -13590,7 +13587,7 @@
       </c>
       <c r="H50" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I50">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13600,8 +13597,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K50" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44124</v>
       </c>
@@ -13617,7 +13618,7 @@
         <v>10</v>
       </c>
       <c r="E51">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F51">
@@ -13630,7 +13631,7 @@
       </c>
       <c r="H51" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I51">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13640,8 +13641,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K51" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44125</v>
       </c>
@@ -13657,7 +13662,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F52">
@@ -13670,7 +13675,7 @@
       </c>
       <c r="H52" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I52">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13680,8 +13685,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K52" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44126</v>
       </c>
@@ -13697,7 +13706,7 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F53">
@@ -13710,7 +13719,7 @@
       </c>
       <c r="H53" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I53">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13720,8 +13729,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K53" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44127</v>
       </c>
@@ -13737,7 +13750,7 @@
         <v>10</v>
       </c>
       <c r="E54">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F54">
@@ -13750,7 +13763,7 @@
       </c>
       <c r="H54" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I54">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13760,8 +13773,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K54" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44128</v>
       </c>
@@ -13777,7 +13794,7 @@
         <v>10</v>
       </c>
       <c r="E55">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F55">
@@ -13790,7 +13807,7 @@
       </c>
       <c r="H55" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I55">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13800,8 +13817,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K55" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44129</v>
       </c>
@@ -13817,7 +13838,7 @@
         <v>10</v>
       </c>
       <c r="E56">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F56">
@@ -13830,7 +13851,7 @@
       </c>
       <c r="H56" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I56">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13840,8 +13861,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K56" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44130</v>
       </c>
@@ -13857,7 +13882,7 @@
         <v>10</v>
       </c>
       <c r="E57">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F57">
@@ -13870,7 +13895,7 @@
       </c>
       <c r="H57" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I57">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13880,8 +13905,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K57" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44131</v>
       </c>
@@ -13897,7 +13926,7 @@
         <v>10</v>
       </c>
       <c r="E58">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F58">
@@ -13910,7 +13939,7 @@
       </c>
       <c r="H58" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I58">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13920,8 +13949,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K58" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44132</v>
       </c>
@@ -13937,7 +13970,7 @@
         <v>10</v>
       </c>
       <c r="E59">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F59">
@@ -13950,7 +13983,7 @@
       </c>
       <c r="H59" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I59">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -13960,8 +13993,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K59" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44133</v>
       </c>
@@ -13977,7 +14014,7 @@
         <v>10</v>
       </c>
       <c r="E60">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F60">
@@ -13990,7 +14027,7 @@
       </c>
       <c r="H60" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I60">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14000,8 +14037,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K60" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44134</v>
       </c>
@@ -14017,7 +14058,7 @@
         <v>10</v>
       </c>
       <c r="E61">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F61">
@@ -14030,7 +14071,7 @@
       </c>
       <c r="H61" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I61">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14040,8 +14081,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K61" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44135</v>
       </c>
@@ -14057,7 +14102,7 @@
         <v>10</v>
       </c>
       <c r="E62">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202010</v>
       </c>
       <c r="F62">
@@ -14070,7 +14115,7 @@
       </c>
       <c r="H62" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I62">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14080,8 +14125,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K62" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44136</v>
       </c>
@@ -14097,7 +14146,7 @@
         <v>11</v>
       </c>
       <c r="E63">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F63">
@@ -14110,7 +14159,7 @@
       </c>
       <c r="H63" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I63">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14120,8 +14169,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K63" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44137</v>
       </c>
@@ -14137,7 +14190,7 @@
         <v>11</v>
       </c>
       <c r="E64">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F64">
@@ -14150,7 +14203,7 @@
       </c>
       <c r="H64" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I64">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14160,8 +14213,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K64" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44138</v>
       </c>
@@ -14177,7 +14234,7 @@
         <v>11</v>
       </c>
       <c r="E65">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F65">
@@ -14190,7 +14247,7 @@
       </c>
       <c r="H65" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I65">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14200,8 +14257,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K65" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44139</v>
       </c>
@@ -14217,7 +14278,7 @@
         <v>11</v>
       </c>
       <c r="E66">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F66">
@@ -14230,7 +14291,7 @@
       </c>
       <c r="H66" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I66">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14240,8 +14301,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K66" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44140</v>
       </c>
@@ -14257,7 +14322,7 @@
         <v>11</v>
       </c>
       <c r="E67">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F67">
@@ -14270,7 +14335,7 @@
       </c>
       <c r="H67" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I67">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14280,8 +14345,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K67" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44141</v>
       </c>
@@ -14297,7 +14366,7 @@
         <v>11</v>
       </c>
       <c r="E68">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F68">
@@ -14310,7 +14379,7 @@
       </c>
       <c r="H68" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I68">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14320,8 +14389,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K68" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44142</v>
       </c>
@@ -14337,7 +14410,7 @@
         <v>11</v>
       </c>
       <c r="E69">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F69">
@@ -14350,7 +14423,7 @@
       </c>
       <c r="H69" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I69">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14360,8 +14433,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K69" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44143</v>
       </c>
@@ -14377,7 +14454,7 @@
         <v>11</v>
       </c>
       <c r="E70">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F70">
@@ -14390,7 +14467,7 @@
       </c>
       <c r="H70" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I70">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14400,8 +14477,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K70" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44144</v>
       </c>
@@ -14417,7 +14498,7 @@
         <v>11</v>
       </c>
       <c r="E71">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F71">
@@ -14430,7 +14511,7 @@
       </c>
       <c r="H71" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I71">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14440,8 +14521,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K71" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44145</v>
       </c>
@@ -14457,7 +14542,7 @@
         <v>11</v>
       </c>
       <c r="E72">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F72">
@@ -14470,7 +14555,7 @@
       </c>
       <c r="H72" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I72">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14480,8 +14565,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K72" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44146</v>
       </c>
@@ -14497,7 +14586,7 @@
         <v>11</v>
       </c>
       <c r="E73">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F73">
@@ -14510,7 +14599,7 @@
       </c>
       <c r="H73" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I73">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14520,8 +14609,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K73" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44147</v>
       </c>
@@ -14537,7 +14630,7 @@
         <v>11</v>
       </c>
       <c r="E74">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F74">
@@ -14550,7 +14643,7 @@
       </c>
       <c r="H74" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I74">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14560,8 +14653,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K74" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44148</v>
       </c>
@@ -14577,7 +14674,7 @@
         <v>11</v>
       </c>
       <c r="E75">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F75">
@@ -14590,7 +14687,7 @@
       </c>
       <c r="H75" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I75">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14600,8 +14697,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K75" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44149</v>
       </c>
@@ -14617,7 +14718,7 @@
         <v>11</v>
       </c>
       <c r="E76">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F76">
@@ -14630,7 +14731,7 @@
       </c>
       <c r="H76" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I76">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14640,8 +14741,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K76" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44150</v>
       </c>
@@ -14657,7 +14762,7 @@
         <v>11</v>
       </c>
       <c r="E77">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F77">
@@ -14670,7 +14775,7 @@
       </c>
       <c r="H77" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I77">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14680,8 +14785,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K77" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44151</v>
       </c>
@@ -14697,7 +14806,7 @@
         <v>11</v>
       </c>
       <c r="E78">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F78">
@@ -14710,7 +14819,7 @@
       </c>
       <c r="H78" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I78">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14720,8 +14829,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K78" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44152</v>
       </c>
@@ -14737,7 +14850,7 @@
         <v>11</v>
       </c>
       <c r="E79">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F79">
@@ -14750,7 +14863,7 @@
       </c>
       <c r="H79" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I79">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14760,8 +14873,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K79" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44153</v>
       </c>
@@ -14777,7 +14894,7 @@
         <v>11</v>
       </c>
       <c r="E80">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F80">
@@ -14790,7 +14907,7 @@
       </c>
       <c r="H80" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I80">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14800,8 +14917,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K80" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44154</v>
       </c>
@@ -14817,7 +14938,7 @@
         <v>11</v>
       </c>
       <c r="E81">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F81">
@@ -14830,7 +14951,7 @@
       </c>
       <c r="H81" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I81">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14840,8 +14961,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K81" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44155</v>
       </c>
@@ -14857,7 +14982,7 @@
         <v>11</v>
       </c>
       <c r="E82">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F82">
@@ -14870,7 +14995,7 @@
       </c>
       <c r="H82" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I82">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14880,8 +15005,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K82" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44156</v>
       </c>
@@ -14897,7 +15026,7 @@
         <v>11</v>
       </c>
       <c r="E83">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F83">
@@ -14910,7 +15039,7 @@
       </c>
       <c r="H83" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I83">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14920,8 +15049,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K83" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44157</v>
       </c>
@@ -14937,7 +15070,7 @@
         <v>11</v>
       </c>
       <c r="E84">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F84">
@@ -14950,7 +15083,7 @@
       </c>
       <c r="H84" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I84">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -14960,8 +15093,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K84" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44158</v>
       </c>
@@ -14977,7 +15114,7 @@
         <v>11</v>
       </c>
       <c r="E85">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F85">
@@ -14990,7 +15127,7 @@
       </c>
       <c r="H85" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I85">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15000,8 +15137,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K85" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44159</v>
       </c>
@@ -15017,7 +15158,7 @@
         <v>11</v>
       </c>
       <c r="E86">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F86">
@@ -15030,7 +15171,7 @@
       </c>
       <c r="H86" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I86">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15040,8 +15181,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K86" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44160</v>
       </c>
@@ -15057,7 +15202,7 @@
         <v>11</v>
       </c>
       <c r="E87">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F87">
@@ -15070,7 +15215,7 @@
       </c>
       <c r="H87" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I87">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15080,8 +15225,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K87" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44161</v>
       </c>
@@ -15097,7 +15246,7 @@
         <v>11</v>
       </c>
       <c r="E88">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F88">
@@ -15110,7 +15259,7 @@
       </c>
       <c r="H88" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I88">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15120,8 +15269,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K88" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44162</v>
       </c>
@@ -15137,7 +15290,7 @@
         <v>11</v>
       </c>
       <c r="E89">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F89">
@@ -15150,7 +15303,7 @@
       </c>
       <c r="H89" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I89">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15160,8 +15313,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K89" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44163</v>
       </c>
@@ -15177,7 +15334,7 @@
         <v>11</v>
       </c>
       <c r="E90">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F90">
@@ -15190,7 +15347,7 @@
       </c>
       <c r="H90" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I90">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15200,8 +15357,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K90" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44164</v>
       </c>
@@ -15217,7 +15378,7 @@
         <v>11</v>
       </c>
       <c r="E91">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F91">
@@ -15230,7 +15391,7 @@
       </c>
       <c r="H91" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I91">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15240,8 +15401,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K91" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44165</v>
       </c>
@@ -15257,7 +15422,7 @@
         <v>11</v>
       </c>
       <c r="E92">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202011</v>
       </c>
       <c r="F92">
@@ -15270,7 +15435,7 @@
       </c>
       <c r="H92" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I92">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15280,8 +15445,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K92" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44166</v>
       </c>
@@ -15297,7 +15466,7 @@
         <v>12</v>
       </c>
       <c r="E93">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F93">
@@ -15310,7 +15479,7 @@
       </c>
       <c r="H93" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I93">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15320,8 +15489,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K93" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44167</v>
       </c>
@@ -15337,7 +15510,7 @@
         <v>12</v>
       </c>
       <c r="E94">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F94">
@@ -15350,7 +15523,7 @@
       </c>
       <c r="H94" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I94">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15360,8 +15533,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K94" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44168</v>
       </c>
@@ -15377,7 +15554,7 @@
         <v>12</v>
       </c>
       <c r="E95">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F95">
@@ -15390,7 +15567,7 @@
       </c>
       <c r="H95" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I95">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15400,8 +15577,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K95" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44169</v>
       </c>
@@ -15417,7 +15598,7 @@
         <v>12</v>
       </c>
       <c r="E96">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F96">
@@ -15430,7 +15611,7 @@
       </c>
       <c r="H96" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I96">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15440,8 +15621,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K96" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44170</v>
       </c>
@@ -15457,7 +15642,7 @@
         <v>12</v>
       </c>
       <c r="E97">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F97">
@@ -15470,7 +15655,7 @@
       </c>
       <c r="H97" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I97">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15480,8 +15665,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K97" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44171</v>
       </c>
@@ -15497,7 +15686,7 @@
         <v>12</v>
       </c>
       <c r="E98">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F98">
@@ -15510,7 +15699,7 @@
       </c>
       <c r="H98" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I98">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15520,8 +15709,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K98" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44172</v>
       </c>
@@ -15537,7 +15730,7 @@
         <v>12</v>
       </c>
       <c r="E99">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F99">
@@ -15550,7 +15743,7 @@
       </c>
       <c r="H99" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I99">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15560,8 +15753,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K99" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44173</v>
       </c>
@@ -15577,7 +15774,7 @@
         <v>12</v>
       </c>
       <c r="E100">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F100">
@@ -15590,7 +15787,7 @@
       </c>
       <c r="H100" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I100">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15600,8 +15797,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K100" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44174</v>
       </c>
@@ -15617,7 +15818,7 @@
         <v>12</v>
       </c>
       <c r="E101">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F101">
@@ -15630,7 +15831,7 @@
       </c>
       <c r="H101" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I101">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15640,8 +15841,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K101" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44175</v>
       </c>
@@ -15657,7 +15862,7 @@
         <v>12</v>
       </c>
       <c r="E102">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F102">
@@ -15670,7 +15875,7 @@
       </c>
       <c r="H102" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I102">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15680,8 +15885,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K102" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44176</v>
       </c>
@@ -15697,7 +15906,7 @@
         <v>12</v>
       </c>
       <c r="E103">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F103">
@@ -15710,7 +15919,7 @@
       </c>
       <c r="H103" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I103">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15720,8 +15929,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K103" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44177</v>
       </c>
@@ -15737,7 +15950,7 @@
         <v>12</v>
       </c>
       <c r="E104">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F104">
@@ -15750,7 +15963,7 @@
       </c>
       <c r="H104" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I104">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15760,8 +15973,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K104" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44178</v>
       </c>
@@ -15777,7 +15994,7 @@
         <v>12</v>
       </c>
       <c r="E105">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F105">
@@ -15790,7 +16007,7 @@
       </c>
       <c r="H105" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I105">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15800,8 +16017,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K105" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44179</v>
       </c>
@@ -15817,7 +16038,7 @@
         <v>12</v>
       </c>
       <c r="E106">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F106">
@@ -15830,7 +16051,7 @@
       </c>
       <c r="H106" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I106">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15840,8 +16061,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K106" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44180</v>
       </c>
@@ -15857,7 +16082,7 @@
         <v>12</v>
       </c>
       <c r="E107">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F107">
@@ -15870,7 +16095,7 @@
       </c>
       <c r="H107" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I107">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15880,8 +16105,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K107" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44181</v>
       </c>
@@ -15897,7 +16126,7 @@
         <v>12</v>
       </c>
       <c r="E108">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F108">
@@ -15910,7 +16139,7 @@
       </c>
       <c r="H108" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I108">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15920,8 +16149,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K108" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44182</v>
       </c>
@@ -15937,7 +16170,7 @@
         <v>12</v>
       </c>
       <c r="E109">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F109">
@@ -15950,7 +16183,7 @@
       </c>
       <c r="H109" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I109">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -15960,8 +16193,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K109" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44183</v>
       </c>
@@ -15977,7 +16214,7 @@
         <v>12</v>
       </c>
       <c r="E110">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F110">
@@ -15990,7 +16227,7 @@
       </c>
       <c r="H110" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I110">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16000,8 +16237,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K110" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44184</v>
       </c>
@@ -16017,7 +16258,7 @@
         <v>12</v>
       </c>
       <c r="E111">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F111">
@@ -16030,7 +16271,7 @@
       </c>
       <c r="H111" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I111">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16040,8 +16281,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K111" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44185</v>
       </c>
@@ -16057,7 +16302,7 @@
         <v>12</v>
       </c>
       <c r="E112">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F112">
@@ -16070,7 +16315,7 @@
       </c>
       <c r="H112" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I112">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16080,8 +16325,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K112" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44186</v>
       </c>
@@ -16097,7 +16346,7 @@
         <v>12</v>
       </c>
       <c r="E113">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F113">
@@ -16110,7 +16359,7 @@
       </c>
       <c r="H113" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I113">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16120,8 +16369,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K113" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44187</v>
       </c>
@@ -16137,7 +16390,7 @@
         <v>12</v>
       </c>
       <c r="E114">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F114">
@@ -16150,7 +16403,7 @@
       </c>
       <c r="H114" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I114">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16160,8 +16413,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K114" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44188</v>
       </c>
@@ -16177,7 +16434,7 @@
         <v>12</v>
       </c>
       <c r="E115">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F115">
@@ -16190,7 +16447,7 @@
       </c>
       <c r="H115" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I115">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16200,8 +16457,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K115" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44189</v>
       </c>
@@ -16217,7 +16478,7 @@
         <v>12</v>
       </c>
       <c r="E116">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F116">
@@ -16230,7 +16491,7 @@
       </c>
       <c r="H116" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I116">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16240,8 +16501,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K116" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
+      </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44190</v>
       </c>
@@ -16257,7 +16522,7 @@
         <v>12</v>
       </c>
       <c r="E117">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F117">
@@ -16270,7 +16535,7 @@
       </c>
       <c r="H117" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pátek</v>
+        <v>Friday</v>
       </c>
       <c r="I117">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16280,8 +16545,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K117" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Fr</v>
+      </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44191</v>
       </c>
@@ -16297,7 +16566,7 @@
         <v>12</v>
       </c>
       <c r="E118">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F118">
@@ -16310,7 +16579,7 @@
       </c>
       <c r="H118" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>sobota</v>
+        <v>Saturday</v>
       </c>
       <c r="I118">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16320,8 +16589,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K118" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Sa</v>
+      </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44192</v>
       </c>
@@ -16337,7 +16610,7 @@
         <v>12</v>
       </c>
       <c r="E119">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F119">
@@ -16350,7 +16623,7 @@
       </c>
       <c r="H119" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>neděle</v>
+        <v>Sunday</v>
       </c>
       <c r="I119">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16360,8 +16633,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K119" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Su</v>
+      </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44193</v>
       </c>
@@ -16377,7 +16654,7 @@
         <v>12</v>
       </c>
       <c r="E120">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F120">
@@ -16390,7 +16667,7 @@
       </c>
       <c r="H120" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>pondělí</v>
+        <v>Monday</v>
       </c>
       <c r="I120">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16400,8 +16677,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K120" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Mo</v>
+      </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44194</v>
       </c>
@@ -16417,7 +16698,7 @@
         <v>12</v>
       </c>
       <c r="E121">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F121">
@@ -16430,7 +16711,7 @@
       </c>
       <c r="H121" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>úterý</v>
+        <v>Tuesday</v>
       </c>
       <c r="I121">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16440,8 +16721,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K121" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Tu</v>
+      </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44195</v>
       </c>
@@ -16457,7 +16742,7 @@
         <v>12</v>
       </c>
       <c r="E122">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F122">
@@ -16470,7 +16755,7 @@
       </c>
       <c r="H122" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>středa</v>
+        <v>Wednesday</v>
       </c>
       <c r="I122">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16480,8 +16765,12 @@
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="K122" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>We</v>
+      </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44196</v>
       </c>
@@ -16497,7 +16786,7 @@
         <v>12</v>
       </c>
       <c r="E123">
-        <f>VALUE(TEXT(data[[#This Row],[date]],"rrrrmm"))</f>
+        <f>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</f>
         <v>202012</v>
       </c>
       <c r="F123">
@@ -16510,7 +16799,7 @@
       </c>
       <c r="H123" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
-        <v>čtvrtek</v>
+        <v>Thursday</v>
       </c>
       <c r="I123">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</f>
@@ -16519,454 +16808,460 @@
       <c r="J123">
         <f>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</f>
         <v>0</v>
+      </c>
+      <c r="K123" t="str">
+        <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
+        <v>Th</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="124" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="124" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="12" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="12" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="12" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="12" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="12" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="12" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="12" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="12" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="12" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="12" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="12" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="12" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="12" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="12" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="155" max="155" width="12" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="157" max="157" width="12" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="12" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="12" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="12" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="165" max="165" width="12" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="167" max="167" width="12" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="169" max="169" width="12" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="12" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="12" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="12" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="177" max="177" width="12" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="12" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="181" max="181" width="12" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="183" max="183" width="12" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="12" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="12" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="189" max="189" width="12" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="191" max="191" width="12" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="193" max="193" width="12" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="195" max="195" width="12" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="197" max="197" width="12" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="12" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="201" max="201" width="12" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="203" max="203" width="12" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="205" max="205" width="12" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="207" max="207" width="12" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="209" max="209" width="12" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="12" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="213" max="213" width="12" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="215" max="215" width="12" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="217" max="217" width="12" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="219" max="219" width="12" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="221" max="221" width="12" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="223" max="223" width="12" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="225" max="225" width="12" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="227" max="227" width="12" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="229" max="229" width="12" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="231" max="231" width="12" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="233" max="233" width="12" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="235" max="235" width="12" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="237" max="237" width="12" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="239" max="239" width="12" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="241" max="241" width="12" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="243" max="243" width="12" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="245" max="245" width="12" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="4" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="7"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="3">
         <v>202009</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>46145</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="3">
         <v>202010</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>264339</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="3">
         <v>202011</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>188196</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="3">
         <v>202012</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>195363</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>694043</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="7"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="7" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
         <v>202036</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>3134</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="5">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="3">
         <v>202037</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>7649</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="3">
         <v>202038</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="4">
         <v>12905</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="5">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="3">
         <v>202039</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>14988</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="5">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="3">
         <v>202040</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="4">
         <v>17311</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="5">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="3">
         <v>202041</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="4">
         <v>33400</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="5">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="3">
         <v>202042</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4">
         <v>54822</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="5">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="3">
         <v>202043</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>81970</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="5">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="3">
         <v>202044</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="4">
         <v>84305</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="5">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="3">
         <v>202045</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="4">
         <v>76118</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="5">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="3">
         <v>202046</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="4">
         <v>47009</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="5">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="3">
         <v>202047</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="4">
         <v>32521</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="5">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="3">
         <v>202048</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="4">
         <v>27899</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="5">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="3">
         <v>202049</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="4">
         <v>25530</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="5">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="3">
         <v>202050</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="4">
         <v>31243</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="5">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="3">
         <v>202051</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="4">
         <v>43414</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="5">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="3">
         <v>202052</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="4">
         <v>48733</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="5">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="3">
         <v>202053</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="4">
         <v>51092</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="4">
         <v>694043</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="7" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C78" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="5" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="5" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="4">
         <v>4237</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="5" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="4">
         <v>5857</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="4">
         <v>6406</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="5" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="4">
         <v>5872</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="5" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="4">
         <v>6217</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="5" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="4">
         <v>2654</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="4">
         <v>31243</v>
       </c>
     </row>

--- a/engeto_excel_2023_kypta_2_covid_report.xlsx
+++ b/engeto_excel_2023_kypta_2_covid_report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkypt\Desktop\engeto_datacourse_sql_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkypt\Desktop\engeto_datacourse_SQL_BI_EXCEL_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CD3D2E-E05E-4AE1-B934-BA99DF0D80D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F689FC80-715C-4658-A82A-E1A7404C1530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -121,6 +121,12 @@
   <si>
     <t>short_day</t>
   </si>
+  <si>
+    <t>First day</t>
+  </si>
+  <si>
+    <t>Confirmed on day</t>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -195,17 +201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -214,7 +216,10 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -10668,7 +10673,7 @@
     <dataField name="Number of confirmed cases" fld="1" baseField="4" baseItem="2" numFmtId="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -10907,7 +10912,7 @@
     <dataField name="Number of confirmed cases" fld="1" baseField="4" baseItem="2" numFmtId="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -10991,7 +10996,7 @@
     <dataField name="Number of confirmed cases" fld="1" baseField="4" baseItem="2" numFmtId="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11068,25 +11073,25 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="month" dataDxfId="10">
       <calculatedColumnFormula>MONTH(data[[#This Row],[date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="period" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="period" dataDxfId="9">
       <calculatedColumnFormula>VALUE(TEXT(data[[#This Row],[date]],"yyyymm"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{236B00E1-4C23-49B0-A698-9CB1F354D02C}" name="week" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{236B00E1-4C23-49B0-A698-9CB1F354D02C}" name="week" dataDxfId="8">
       <calculatedColumnFormula>WEEKNUM(data[[#This Row],[date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{037D3389-24E6-43FA-B944-E901B19DDB6A}" name="yearweek" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{037D3389-24E6-43FA-B944-E901B19DDB6A}" name="yearweek" dataDxfId="7">
       <calculatedColumnFormula>data[[#This Row],[year]]*100+data[[#This Row],[week]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3FE79574-410C-46DD-BC21-FD6449A3A525}" name="day" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{3FE79574-410C-46DD-BC21-FD6449A3A525}" name="day" dataDxfId="6">
       <calculatedColumnFormula>TEXT(data[[#This Row],[date]],"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CFBEFF41-5DCD-4649-84F9-5A00DA3E0B59}" name="current_week" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{CFBEFF41-5DCD-4649-84F9-5A00DA3E0B59}" name="current_week" dataDxfId="5">
       <calculatedColumnFormula>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AE27ECAB-9F2A-4812-91C1-7C77DDB38E7D}" name="previous_week" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{AE27ECAB-9F2A-4812-91C1-7C77DDB38E7D}" name="previous_week" dataDxfId="4">
       <calculatedColumnFormula>IF(data[[#This Row],[yearweek]]=data[[#This Row],[week]]-1,1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F6B27A8-FBBA-4586-97E2-5BABECFF86EA}" name="short_day" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{7F6B27A8-FBBA-4586-97E2-5BABECFF86EA}" name="short_day" dataDxfId="3">
       <calculatedColumnFormula>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11392,25 +11397,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11445,7 +11451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44075</v>
       </c>
@@ -11472,7 +11478,7 @@
         <f>data[[#This Row],[year]]*100+data[[#This Row],[week]]</f>
         <v>202036</v>
       </c>
-      <c r="H2" s="8" t="str">
+      <c r="H2" t="str">
         <f>TEXT(data[[#This Row],[date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -11489,7 +11495,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44076</v>
       </c>
@@ -11533,7 +11539,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44077</v>
       </c>
@@ -11577,7 +11583,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44078</v>
       </c>
@@ -11621,7 +11627,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44079</v>
       </c>
@@ -11665,8 +11671,11 @@
         <v>Sa</v>
       </c>
       <c r="N6" s="1"/>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44080</v>
       </c>
@@ -11709,8 +11718,17 @@
         <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
         <v>Su</v>
       </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7">
+        <v>499</v>
+      </c>
+      <c r="R7">
+        <v>202009</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44081</v>
       </c>
@@ -11753,8 +11771,16 @@
         <f>LEFT(TEXT(data[[#This Row],[day]],"emm"), 2)</f>
         <v>Mo</v>
       </c>
+      <c r="P8" t="str">
+        <f>$H$2</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="Q8" t="e">
+        <f>_xlfn.XLOOKUP(Q7,data[confirmed],_xlfn.XLOOKUP(R7,data[period],data[day]))</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44082</v>
       </c>
@@ -11798,7 +11824,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44083</v>
       </c>
@@ -11842,7 +11868,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44084</v>
       </c>
@@ -11886,7 +11912,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44085</v>
       </c>
@@ -11930,7 +11956,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44086</v>
       </c>
@@ -11974,7 +12000,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44087</v>
       </c>
@@ -12018,7 +12044,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44088</v>
       </c>
@@ -12062,7 +12088,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44089</v>
       </c>
@@ -12106,7 +12132,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44090</v>
       </c>
@@ -12150,7 +12176,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44091</v>
       </c>
@@ -12194,7 +12220,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44092</v>
       </c>
@@ -12238,7 +12264,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44093</v>
       </c>
@@ -12282,7 +12308,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44094</v>
       </c>
@@ -12326,7 +12352,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44095</v>
       </c>
@@ -12370,7 +12396,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44096</v>
       </c>
@@ -12414,7 +12440,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44097</v>
       </c>
@@ -12458,7 +12484,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44098</v>
       </c>
@@ -12502,7 +12528,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44099</v>
       </c>
@@ -12546,7 +12572,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44100</v>
       </c>
@@ -12590,7 +12616,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44101</v>
       </c>
@@ -12634,7 +12660,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44102</v>
       </c>
@@ -12678,7 +12704,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44103</v>
       </c>
@@ -12722,7 +12748,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44104</v>
       </c>
@@ -12766,7 +12792,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44105</v>
       </c>
@@ -12810,7 +12836,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44106</v>
       </c>
@@ -12854,7 +12880,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44107</v>
       </c>
@@ -12898,7 +12924,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44108</v>
       </c>
@@ -12942,7 +12968,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44109</v>
       </c>
@@ -12986,7 +13012,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44110</v>
       </c>
@@ -13030,7 +13056,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44111</v>
       </c>
@@ -13074,7 +13100,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44112</v>
       </c>
@@ -13118,7 +13144,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44113</v>
       </c>
@@ -13162,7 +13188,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44114</v>
       </c>
@@ -13206,7 +13232,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44115</v>
       </c>
@@ -13250,7 +13276,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44116</v>
       </c>
@@ -13294,7 +13320,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44117</v>
       </c>
@@ -13338,7 +13364,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44118</v>
       </c>
@@ -13382,7 +13408,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44119</v>
       </c>
@@ -13426,7 +13452,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44120</v>
       </c>
@@ -13470,7 +13496,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44121</v>
       </c>
@@ -13514,7 +13540,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44122</v>
       </c>
@@ -13558,7 +13584,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44123</v>
       </c>
@@ -13602,7 +13628,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44124</v>
       </c>
@@ -13646,7 +13672,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44125</v>
       </c>
@@ -13690,7 +13716,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44126</v>
       </c>
@@ -13734,7 +13760,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44127</v>
       </c>
@@ -13778,7 +13804,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44128</v>
       </c>
@@ -13822,7 +13848,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44129</v>
       </c>
@@ -13866,7 +13892,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44130</v>
       </c>
@@ -13910,7 +13936,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44131</v>
       </c>
@@ -13954,7 +13980,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44132</v>
       </c>
@@ -13998,7 +14024,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44133</v>
       </c>
@@ -14042,7 +14068,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44134</v>
       </c>
@@ -14086,7 +14112,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44135</v>
       </c>
@@ -14130,7 +14156,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44136</v>
       </c>
@@ -14174,7 +14200,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44137</v>
       </c>
@@ -14218,7 +14244,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44138</v>
       </c>
@@ -14262,7 +14288,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44139</v>
       </c>
@@ -14306,7 +14332,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44140</v>
       </c>
@@ -14350,7 +14376,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44141</v>
       </c>
@@ -14394,7 +14420,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44142</v>
       </c>
@@ -14438,7 +14464,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44143</v>
       </c>
@@ -14482,7 +14508,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44144</v>
       </c>
@@ -14526,7 +14552,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44145</v>
       </c>
@@ -14570,7 +14596,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44146</v>
       </c>
@@ -14614,7 +14640,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44147</v>
       </c>
@@ -14658,7 +14684,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44148</v>
       </c>
@@ -14702,7 +14728,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44149</v>
       </c>
@@ -14746,7 +14772,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44150</v>
       </c>
@@ -14790,7 +14816,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44151</v>
       </c>
@@ -14834,7 +14860,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44152</v>
       </c>
@@ -14878,7 +14904,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44153</v>
       </c>
@@ -14922,7 +14948,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44154</v>
       </c>
@@ -14966,7 +14992,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44155</v>
       </c>
@@ -15010,7 +15036,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44156</v>
       </c>
@@ -15054,7 +15080,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44157</v>
       </c>
@@ -15098,7 +15124,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44158</v>
       </c>
@@ -15142,7 +15168,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44159</v>
       </c>
@@ -15186,7 +15212,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44160</v>
       </c>
@@ -15230,7 +15256,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44161</v>
       </c>
@@ -15274,7 +15300,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44162</v>
       </c>
@@ -15318,7 +15344,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44163</v>
       </c>
@@ -15362,7 +15388,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44164</v>
       </c>
@@ -15406,7 +15432,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44165</v>
       </c>
@@ -15450,7 +15476,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44166</v>
       </c>
@@ -15494,7 +15520,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44167</v>
       </c>
@@ -15538,7 +15564,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44168</v>
       </c>
@@ -15582,7 +15608,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44169</v>
       </c>
@@ -15626,7 +15652,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44170</v>
       </c>
@@ -15670,7 +15696,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44171</v>
       </c>
@@ -15714,7 +15740,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44172</v>
       </c>
@@ -15758,7 +15784,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44173</v>
       </c>
@@ -15802,7 +15828,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44174</v>
       </c>
@@ -15846,7 +15872,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44175</v>
       </c>
@@ -15890,7 +15916,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44176</v>
       </c>
@@ -15934,7 +15960,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44177</v>
       </c>
@@ -15978,7 +16004,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44178</v>
       </c>
@@ -16022,7 +16048,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44179</v>
       </c>
@@ -16066,7 +16092,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44180</v>
       </c>
@@ -16110,7 +16136,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44181</v>
       </c>
@@ -16154,7 +16180,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44182</v>
       </c>
@@ -16198,7 +16224,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44183</v>
       </c>
@@ -16242,7 +16268,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44184</v>
       </c>
@@ -16286,7 +16312,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44185</v>
       </c>
@@ -16330,7 +16356,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44186</v>
       </c>
@@ -16374,7 +16400,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44187</v>
       </c>
@@ -16418,7 +16444,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44188</v>
       </c>
@@ -16462,7 +16488,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44189</v>
       </c>
@@ -16506,7 +16532,7 @@
         <v>Th</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44190</v>
       </c>
@@ -16550,7 +16576,7 @@
         <v>Fr</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44191</v>
       </c>
@@ -16594,7 +16620,7 @@
         <v>Sa</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44192</v>
       </c>
@@ -16638,7 +16664,7 @@
         <v>Su</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44193</v>
       </c>
@@ -16682,7 +16708,7 @@
         <v>Mo</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44194</v>
       </c>
@@ -16726,7 +16752,7 @@
         <v>Tu</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44195</v>
       </c>
@@ -16770,7 +16796,7 @@
         <v>We</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44196</v>
       </c>
@@ -16833,146 +16859,146 @@
       <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="124" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="124" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="12" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="12" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="12" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="12" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="12" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="12" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="12" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="12" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="12" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="12" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="12" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="12" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="12" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="12" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="155" max="155" width="12" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="157" max="157" width="12" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="12" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="12" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="12" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="165" max="165" width="12" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="167" max="167" width="12" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="169" max="169" width="12" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="12" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="12" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="12" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="177" max="177" width="12" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="12" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="181" max="181" width="12" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="183" max="183" width="12" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="12" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="12" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="189" max="189" width="12" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="191" max="191" width="12" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="193" max="193" width="12" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="195" max="195" width="12" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="197" max="197" width="12" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="12" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="201" max="201" width="12" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="203" max="203" width="12" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="205" max="205" width="12" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="207" max="207" width="12" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="209" max="209" width="12" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="12" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="213" max="213" width="12" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="215" max="215" width="12" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="217" max="217" width="12" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="219" max="219" width="12" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="221" max="221" width="12" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="223" max="223" width="12" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="225" max="225" width="12" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="227" max="227" width="12" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="229" max="229" width="12" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="231" max="231" width="12" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="233" max="233" width="12" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="235" max="235" width="12" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="237" max="237" width="12" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="239" max="239" width="12" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="241" max="241" width="12" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="243" max="243" width="12" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="245" max="245" width="12" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -16980,20 +17006,20 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>202009</v>
       </c>
@@ -17001,7 +17027,7 @@
         <v>46145</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>202010</v>
       </c>
@@ -17009,7 +17035,7 @@
         <v>264339</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>202011</v>
       </c>
@@ -17017,7 +17043,7 @@
         <v>188196</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>202012</v>
       </c>
@@ -17025,7 +17051,7 @@
         <v>195363</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
@@ -17033,18 +17059,18 @@
         <v>694043</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="7"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>202036</v>
       </c>
@@ -17052,7 +17078,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>202037</v>
       </c>
@@ -17060,7 +17086,7 @@
         <v>7649</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>202038</v>
       </c>
@@ -17068,7 +17094,7 @@
         <v>12905</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>202039</v>
       </c>
@@ -17076,7 +17102,7 @@
         <v>14988</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>202040</v>
       </c>
@@ -17084,7 +17110,7 @@
         <v>17311</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>202041</v>
       </c>
@@ -17092,7 +17118,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>202042</v>
       </c>
@@ -17100,7 +17126,7 @@
         <v>54822</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>202043</v>
       </c>
@@ -17108,7 +17134,7 @@
         <v>81970</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>202044</v>
       </c>
@@ -17116,7 +17142,7 @@
         <v>84305</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>202045</v>
       </c>
@@ -17124,7 +17150,7 @@
         <v>76118</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>202046</v>
       </c>
@@ -17132,7 +17158,7 @@
         <v>47009</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>202047</v>
       </c>
@@ -17140,7 +17166,7 @@
         <v>32521</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>202048</v>
       </c>
@@ -17148,7 +17174,7 @@
         <v>27899</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>202049</v>
       </c>
@@ -17156,7 +17182,7 @@
         <v>25530</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>202050</v>
       </c>
@@ -17164,7 +17190,7 @@
         <v>31243</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>202051</v>
       </c>
@@ -17172,7 +17198,7 @@
         <v>43414</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>202052</v>
       </c>
@@ -17180,7 +17206,7 @@
         <v>48733</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>202053</v>
       </c>
@@ -17188,7 +17214,7 @@
         <v>51092</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
@@ -17196,12 +17222,12 @@
         <v>694043</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>18</v>
       </c>
@@ -17209,7 +17235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>13</v>
       </c>
@@ -17217,7 +17243,7 @@
         <v>4237</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>14</v>
       </c>
@@ -17225,7 +17251,7 @@
         <v>5857</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>15</v>
       </c>
@@ -17233,7 +17259,7 @@
         <v>6406</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>16</v>
       </c>
@@ -17241,7 +17267,7 @@
         <v>5872</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>17</v>
       </c>
@@ -17249,7 +17275,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>19</v>
       </c>
@@ -17257,7 +17283,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>3</v>
       </c>
